--- a/results/hdm05.xlsx
+++ b/results/hdm05.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
   <si>
     <t>classifier</t>
   </si>
@@ -88,37 +88,10 @@
     <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.003</t>
   </si>
   <si>
-    <t>SMART</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>minmaxAT(SMART)</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>cp:0.005, attack epoch:1000, normal attack success rate:97.48%</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>RSTrainer(0.1)</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>gaussian noise N~(0,0.1)</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>CIASA</t>
   </si>
   <si>
     <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.005</t>
-  </si>
-  <si>
-    <t>minmaxAT(CIASA)</t>
-  </si>
-  <si>
-    <t>CIASA</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>SGN</t>
@@ -137,7 +110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,24 +118,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -174,18 +136,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -464,15 +422,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A6" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -629,59 +590,45 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D7" s="1">
         <v>0.92659999999999998</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E7" s="1">
         <v>0.9748</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.92279999999999995</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.89039999999999997</v>
+      </c>
+      <c r="J7" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="3">
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.92659999999999998</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.87639999999999996</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0.12920000000000001</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>23</v>
+      <c r="K7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -689,25 +636,28 @@
         <v>0.92659999999999998</v>
       </c>
       <c r="E8" s="1">
-        <v>0.9748</v>
+        <v>0.88319999999999999</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H8" s="1">
-        <v>0.89829999999999999</v>
+        <v>0.92279999999999995</v>
       </c>
       <c r="I8" s="1">
-        <v>0.90559999999999996</v>
+        <v>0.7026</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
@@ -715,280 +665,83 @@
         <v>0.92659999999999998</v>
       </c>
       <c r="E9" s="1">
+        <v>0.9748</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.9284</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="E10" s="1">
         <v>0.87639999999999996</v>
       </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.89829999999999999</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.72919999999999996</v>
-      </c>
-      <c r="J9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.92659999999999998</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.9748</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.92279999999999995</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.89039999999999997</v>
-      </c>
-      <c r="J11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" t="s">
-        <v>17</v>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.9284</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.224</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1">
-        <v>0.92659999999999998</v>
+        <v>0.94159999999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.88319999999999999</v>
+        <v>0.97989999999999999</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
       </c>
       <c r="H12" s="1">
-        <v>0.92279999999999995</v>
+        <v>0.94530000000000003</v>
       </c>
       <c r="I12" s="1">
-        <v>0.7026</v>
+        <v>0.1719</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.92659999999999998</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.9748</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.9284</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="J13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.92659999999999998</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.87639999999999996</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.9284</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.224</v>
-      </c>
-      <c r="J14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.92659999999999998</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.9748</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0.2417</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0.92659999999999998</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.87639999999999996</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0.12920000000000001</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.92659999999999998</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.91120000000000001</v>
-      </c>
-      <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0.89829999999999999</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.90559999999999996</v>
-      </c>
-      <c r="J17" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.92659999999999998</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.87639999999999996</v>
-      </c>
-      <c r="F18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0.89829999999999999</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0.73099999999999998</v>
-      </c>
-      <c r="J18" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.94159999999999999</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.97989999999999999</v>
-      </c>
-      <c r="F20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20">
-        <v>10</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0.94530000000000003</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0.1719</v>
-      </c>
-      <c r="J20" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/results/hdm05.xlsx
+++ b/results/hdm05.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
   <si>
     <t>classifier</t>
   </si>
@@ -104,6 +104,9 @@
   <si>
     <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1, , --bayesianModelNum:5</t>
     <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>adversarial train time (hrs)</t>
   </si>
 </sst>
 </file>
@@ -425,7 +428,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,7 +459,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -481,6 +484,9 @@
       <c r="B2" t="s">
         <v>12</v>
       </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
       <c r="D2" s="1">
         <v>0.92659999999999998</v>
       </c>
@@ -489,6 +495,9 @@
       </c>
       <c r="F2" t="s">
         <v>13</v>
+      </c>
+      <c r="G2">
+        <v>0.8</v>
       </c>
       <c r="H2" s="1">
         <v>0.92279999999999995</v>
@@ -510,6 +519,9 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
       <c r="D3" s="1">
         <v>0.92659999999999998</v>
       </c>
@@ -539,6 +551,9 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
       <c r="D4" s="1">
         <v>0.92659999999999998</v>
       </c>
@@ -567,6 +582,9 @@
       </c>
       <c r="B5" t="s">
         <v>12</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
       </c>
       <c r="D5" s="1">
         <v>0.92659999999999998</v>

--- a/results/hdm05.xlsx
+++ b/results/hdm05.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECDA3AA-F9BC-4E21-8966-FC094F3457C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="34">
   <si>
     <t>classifier</t>
   </si>
@@ -82,66 +83,71 @@
     <t>BayesianEMBATrainer</t>
   </si>
   <si>
+    <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.003</t>
+  </si>
+  <si>
+    <t>SMART</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>minmaxAT(SMART)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp:0.005, attack epoch:1000, normal attack success rate:97.48%</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSTrainer(0.1)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>gaussian noise N~(0,0.1)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>CIASA</t>
+  </si>
+  <si>
+    <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.005</t>
+  </si>
+  <si>
+    <t>minmaxAT(CIASA)</t>
+  </si>
+  <si>
+    <t>CIASA</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>SGN</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>BayesianEMBATrainer(clfAcc)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1, , --bayesianModelNum:5</t>
-  </si>
-  <si>
-    <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.003</t>
-  </si>
-  <si>
-    <t>SMART</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>minmaxAT(SMART)</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>cp:0.005, attack epoch:1000, normal attack success rate:97.48%</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>RSTrainer(0.1)</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>gaussian noise N~(0,0.1)</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>CIASA</t>
-  </si>
-  <si>
-    <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.005</t>
-  </si>
-  <si>
-    <t>minmaxAT(CIASA)</t>
-  </si>
-  <si>
-    <t>CIASA</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>SGN</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>BayesianEMBATrainer(clfAcc)</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1, , --bayesianModelNum:5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, , --bayesianModelNum:5 lr 1e-4</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -150,6 +156,13 @@
       <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -463,19 +476,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -513,7 +527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -542,7 +556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -568,10 +582,10 @@
         <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -597,10 +611,10 @@
         <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -623,15 +637,15 @@
         <v>0.224</v>
       </c>
       <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="13.2">
+      <c r="B6" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="D6" s="3">
         <v>0.92659999999999998</v>
@@ -640,7 +654,7 @@
         <v>0.9748</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" s="3">
         <v>0.90400000000000003</v>
@@ -652,12 +666,12 @@
         <v>14</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="2" customFormat="1" ht="13.2">
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3">
         <v>0.92659999999999998</v>
@@ -666,7 +680,7 @@
         <v>0.87639999999999996</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7" s="3">
         <v>0.90400000000000003</v>
@@ -678,12 +692,12 @@
         <v>16</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1">
         <v>0.92659999999999998</v>
@@ -692,7 +706,7 @@
         <v>0.9748</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H8" s="1">
         <v>0.89829999999999999</v>
@@ -704,12 +718,12 @@
         <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1">
         <v>0.92659999999999998</v>
@@ -718,7 +732,7 @@
         <v>0.87639999999999996</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H9" s="1">
         <v>0.89829999999999999</v>
@@ -730,21 +744,21 @@
         <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1">
         <v>0.92659999999999998</v>
@@ -762,18 +776,18 @@
         <v>0.89039999999999997</v>
       </c>
       <c r="J11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1">
         <v>0.92659999999999998</v>
@@ -791,18 +805,18 @@
         <v>0.7026</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="1">
         <v>0.92659999999999998</v>
@@ -820,18 +834,18 @@
         <v>0.27600000000000002</v>
       </c>
       <c r="J13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1">
         <v>0.92659999999999998</v>
@@ -849,15 +863,15 @@
         <v>0.224</v>
       </c>
       <c r="J14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="2" customFormat="1" ht="13.2">
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="3">
         <v>0.92659999999999998</v>
@@ -866,7 +880,7 @@
         <v>0.9748</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H15" s="3">
         <v>0.90400000000000003</v>
@@ -878,12 +892,12 @@
         <v>14</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="2" customFormat="1" ht="13.2">
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="3">
         <v>0.92659999999999998</v>
@@ -892,7 +906,7 @@
         <v>0.87639999999999996</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H16" s="3">
         <v>0.90400000000000003</v>
@@ -904,12 +918,12 @@
         <v>16</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1">
         <v>0.92659999999999998</v>
@@ -918,7 +932,7 @@
         <v>0.91120000000000001</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H17" s="1">
         <v>0.89829999999999999</v>
@@ -930,12 +944,12 @@
         <v>14</v>
       </c>
       <c r="K17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="1">
         <v>0.92659999999999998</v>
@@ -944,7 +958,7 @@
         <v>0.87639999999999996</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H18" s="1">
         <v>0.89829999999999999</v>
@@ -956,12 +970,12 @@
         <v>16</v>
       </c>
       <c r="K18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
@@ -973,7 +987,7 @@
         <v>0.97989999999999999</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20">
         <v>10</v>
@@ -988,10 +1002,12 @@
         <v>14</v>
       </c>
       <c r="K20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/hdm05.xlsx
+++ b/results/hdm05.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>classifier</t>
   </si>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.003</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -107,6 +103,9 @@
   </si>
   <si>
     <t>adversarial train time (hrs)</t>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1, , --bayesianModelNum:1</t>
   </si>
 </sst>
 </file>
@@ -425,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,7 +458,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -491,25 +490,22 @@
         <v>0.92659999999999998</v>
       </c>
       <c r="E2" s="1">
-        <v>0.9748</v>
+        <v>0.87639999999999996</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2">
-        <v>0.8</v>
-      </c>
       <c r="H2" s="1">
         <v>0.92279999999999995</v>
       </c>
       <c r="I2" s="1">
-        <v>0.88849999999999996</v>
+        <v>0.6946</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -529,19 +525,19 @@
         <v>0.87639999999999996</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1">
-        <v>0.92279999999999995</v>
+        <v>0.9284</v>
       </c>
       <c r="I3" s="1">
-        <v>0.6946</v>
+        <v>0.224</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -558,55 +554,27 @@
         <v>0.92659999999999998</v>
       </c>
       <c r="E4" s="1">
-        <v>0.9748</v>
+        <v>0.87639999999999996</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="1">
-        <v>0.9284</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.2656</v>
-      </c>
+        <v>0.92469999999999997</v>
+      </c>
+      <c r="I4" s="1"/>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.92659999999999998</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.87639999999999996</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.9284</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.224</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>19</v>
-      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" s="1"/>
@@ -615,69 +583,23 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.92659999999999998</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.9748</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.92279999999999995</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.89039999999999997</v>
-      </c>
-      <c r="J7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" t="s">
-        <v>17</v>
-      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.92659999999999998</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.88319999999999999</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.92279999999999995</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.7026</v>
-      </c>
-      <c r="J8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" t="s">
-        <v>17</v>
-      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1">
         <v>0.92659999999999998</v>
@@ -686,19 +608,19 @@
         <v>0.9748</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H9" s="1">
-        <v>0.9284</v>
+        <v>0.92279999999999995</v>
       </c>
       <c r="I9" s="1">
-        <v>0.27600000000000002</v>
+        <v>0.89039999999999997</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -706,60 +628,118 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1">
         <v>0.92659999999999998</v>
       </c>
       <c r="E10" s="1">
-        <v>0.87639999999999996</v>
+        <v>0.88319999999999999</v>
       </c>
       <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.92279999999999995</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.7026</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.9748</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.9284</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s">
         <v>18</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.9284</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.224</v>
-      </c>
-      <c r="J10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.87639999999999996</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.9284</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.224</v>
+      </c>
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.94159999999999999</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.97989999999999999</v>
+      </c>
+      <c r="F14" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.94159999999999999</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.97989999999999999</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.94530000000000003</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.1719</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
         <v>24</v>
-      </c>
-      <c r="G12">
-        <v>10</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.94530000000000003</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.1719</v>
-      </c>
-      <c r="J12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/results/hdm05.xlsx
+++ b/results/hdm05.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
   <si>
     <t>classifier</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>CIASA</t>
-  </si>
-  <si>
-    <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.005</t>
   </si>
   <si>
     <t>SGN</t>
@@ -424,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +455,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -562,12 +559,14 @@
       <c r="H4" s="1">
         <v>0.92469999999999997</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="I4" s="1">
+        <v>0.7913</v>
+      </c>
       <c r="J4" t="s">
         <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -601,11 +600,14 @@
       <c r="B9" t="s">
         <v>20</v>
       </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
       <c r="D9" s="1">
         <v>0.92659999999999998</v>
       </c>
       <c r="E9" s="1">
-        <v>0.9748</v>
+        <v>0.88319999999999999</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
@@ -614,10 +616,10 @@
         <v>0.92279999999999995</v>
       </c>
       <c r="I9" s="1">
-        <v>0.89039999999999997</v>
+        <v>0.7026</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -630,26 +632,29 @@
       <c r="B10" t="s">
         <v>20</v>
       </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
       <c r="D10" s="1">
         <v>0.92659999999999998</v>
       </c>
       <c r="E10" s="1">
-        <v>0.88319999999999999</v>
+        <v>0.87639999999999996</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H10" s="1">
-        <v>0.92279999999999995</v>
+        <v>0.9284</v>
       </c>
       <c r="I10" s="1">
-        <v>0.7026</v>
+        <v>0.224</v>
       </c>
       <c r="J10" t="s">
         <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -659,87 +664,65 @@
       <c r="B11" t="s">
         <v>20</v>
       </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
       <c r="D11" s="1">
         <v>0.92659999999999998</v>
       </c>
       <c r="E11" s="1">
-        <v>0.9748</v>
+        <v>0.87639999999999996</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="1">
-        <v>0.9284</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.27600000000000002</v>
-      </c>
+        <v>0.92469999999999997</v>
+      </c>
+      <c r="I11" s="1"/>
       <c r="J11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="K11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.92659999999999998</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.87639999999999996</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.9284</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.224</v>
-      </c>
-      <c r="J12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.94159999999999999</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.97989999999999999</v>
+      </c>
+      <c r="F13" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.94159999999999999</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.97989999999999999</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.94530000000000003</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.1719</v>
+      </c>
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s">
         <v>23</v>
-      </c>
-      <c r="G14">
-        <v>10</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.94530000000000003</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.1719</v>
-      </c>
-      <c r="J14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/results/hdm05.xlsx
+++ b/results/hdm05.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42F4639-C269-4CF2-ADC3-F13111248750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,26 +96,33 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1, , --bayesianModelNum:5</t>
+    <t>adversarial train time (hrs)</t>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1, , --bayesianModelNum:1</t>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, , --bayesianModelNum:5</t>
     <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>adversarial train time (hrs)</t>
-  </si>
-  <si>
-    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1, , --bayesianModelNum:1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -420,22 +428,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,7 +463,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -473,7 +481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -505,7 +513,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -537,7 +545,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -566,34 +574,34 @@
         <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -625,7 +633,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -657,7 +665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -684,16 +692,16 @@
         <v>19</v>
       </c>
       <c r="K11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -722,10 +730,12 @@
         <v>14</v>
       </c>
       <c r="K13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/hdm05.xlsx
+++ b/results/hdm05.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42F4639-C269-4CF2-ADC3-F13111248750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="31">
   <si>
     <t>classifier</t>
   </si>
@@ -62,9 +61,6 @@
     <t>SMART</t>
   </si>
   <si>
-    <t>EMBATrainer</t>
-  </si>
-  <si>
     <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.005</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -76,9 +72,6 @@
     <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1</t>
   </si>
   <si>
-    <t>BayesianEMBATrainer</t>
-  </si>
-  <si>
     <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1, , --bayesianModelNum:5</t>
   </si>
   <si>
@@ -104,23 +97,44 @@
   <si>
     <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, , --bayesianModelNum:5</t>
     <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1, , --bayesianModelNum:3</t>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1, , --bayesianModelNum:7</t>
+  </si>
+  <si>
+    <t>MEAT</t>
+  </si>
+  <si>
+    <t>BEAT</t>
+  </si>
+  <si>
+    <t>no need to do this experiment anymore</t>
+  </si>
+  <si>
+    <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.9, rw:0.4, blw:0.7, cp:0.01</t>
+  </si>
+  <si>
+    <t>CTRGCN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -428,19 +442,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="9.109375" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="22.88671875" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -463,7 +478,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -489,7 +504,7 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="D2" s="1">
         <v>0.92659999999999998</v>
@@ -498,7 +513,7 @@
         <v>0.87639999999999996</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H2" s="1">
         <v>0.92279999999999995</v>
@@ -507,10 +522,10 @@
         <v>0.6946</v>
       </c>
       <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
         <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -521,7 +536,7 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="D3" s="1">
         <v>0.92659999999999998</v>
@@ -530,19 +545,19 @@
         <v>0.87639999999999996</v>
       </c>
       <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.92469999999999997</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.7913</v>
+      </c>
+      <c r="J3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1">
-        <v>0.9284</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.224</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -553,7 +568,7 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="D4" s="1">
         <v>0.92659999999999998</v>
@@ -562,32 +577,84 @@
         <v>0.87639999999999996</v>
       </c>
       <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.61780000000000002</v>
+      </c>
+      <c r="J4" t="s">
         <v>17</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.92469999999999997</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.7913</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
       </c>
       <c r="K4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>0.3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.87639999999999996</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.9284</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.224</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>0.3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.87639999999999996</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.92469999999999997</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
       <c r="D7" s="1"/>
@@ -596,41 +663,67 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>0.3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.88319999999999999</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.92279999999999995</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.7026</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="D9" s="1">
         <v>0.92659999999999998</v>
       </c>
       <c r="E9" s="1">
-        <v>0.88319999999999999</v>
+        <v>0.87639999999999996</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="H9" s="1">
-        <v>0.92279999999999995</v>
+        <v>0.92469999999999997</v>
       </c>
       <c r="I9" s="1">
-        <v>0.7026</v>
+        <v>0.79169999999999996</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -638,10 +731,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="D10" s="1">
         <v>0.92659999999999998</v>
@@ -650,19 +743,19 @@
         <v>0.87639999999999996</v>
       </c>
       <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.61460000000000004</v>
+      </c>
+      <c r="J10" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="1">
-        <v>0.9284</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.224</v>
-      </c>
-      <c r="J10" t="s">
-        <v>19</v>
-      </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -670,10 +763,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="D11" s="1">
         <v>0.92659999999999998</v>
@@ -682,17 +775,19 @@
         <v>0.87639999999999996</v>
       </c>
       <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.9284</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.224</v>
+      </c>
+      <c r="J11" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="1">
-        <v>0.92469999999999997</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" t="s">
-        <v>19</v>
-      </c>
       <c r="K11" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -702,35 +797,95 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="1">
+      <c r="C14">
+        <v>0.3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.61829999999999996</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>0.3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="1">
         <v>0.94159999999999999</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E28" s="1">
         <v>0.97989999999999999</v>
       </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13">
+      <c r="F28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28">
         <v>10</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H28" s="1">
         <v>0.94530000000000003</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I28" s="1">
         <v>0.1719</v>
       </c>
-      <c r="J13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" t="s">
-        <v>25</v>
+      <c r="J28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/results/hdm05.xlsx
+++ b/results/hdm05.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="30">
   <si>
     <t>classifier</t>
   </si>
@@ -65,17 +65,10 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.003</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1</t>
   </si>
   <si>
     <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1, , --bayesianModelNum:5</t>
-  </si>
-  <si>
-    <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.003</t>
   </si>
   <si>
     <t>CIASA</t>
@@ -118,6 +111,9 @@
   </si>
   <si>
     <t>CTRGCN</t>
+  </si>
+  <si>
+    <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.005</t>
   </si>
 </sst>
 </file>
@@ -446,7 +442,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -478,7 +474,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -504,7 +500,7 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
         <v>0.92659999999999998</v>
@@ -513,7 +509,10 @@
         <v>0.87639999999999996</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="G2">
+        <v>1.9</v>
       </c>
       <c r="H2" s="1">
         <v>0.92279999999999995</v>
@@ -522,10 +521,10 @@
         <v>0.6946</v>
       </c>
       <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
         <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -536,7 +535,7 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
         <v>0.92659999999999998</v>
@@ -545,7 +544,10 @@
         <v>0.87639999999999996</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>0.04</v>
       </c>
       <c r="H3" s="1">
         <v>0.92469999999999997</v>
@@ -554,10 +556,10 @@
         <v>0.7913</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -568,7 +570,7 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
         <v>0.92659999999999998</v>
@@ -577,7 +579,7 @@
         <v>0.87639999999999996</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1">
         <v>0.92659999999999998</v>
@@ -586,10 +588,10 @@
         <v>0.61780000000000002</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -600,7 +602,7 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
         <v>0.92659999999999998</v>
@@ -609,7 +611,7 @@
         <v>0.87639999999999996</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1">
         <v>0.9284</v>
@@ -618,10 +620,10 @@
         <v>0.224</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -632,7 +634,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
         <v>0.92659999999999998</v>
@@ -641,19 +643,22 @@
         <v>0.87639999999999996</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <v>1.63</v>
       </c>
       <c r="H6" s="1">
         <v>0.92469999999999997</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -667,7 +672,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>0.3</v>
@@ -679,7 +684,10 @@
         <v>0.88319999999999999</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <v>1.9</v>
       </c>
       <c r="H8" s="1">
         <v>0.92279999999999995</v>
@@ -688,10 +696,10 @@
         <v>0.7026</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -699,7 +707,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>0.3</v>
@@ -708,10 +716,13 @@
         <v>0.92659999999999998</v>
       </c>
       <c r="E9" s="1">
-        <v>0.87639999999999996</v>
+        <v>0.88319999999999999</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <v>0.04</v>
       </c>
       <c r="H9" s="1">
         <v>0.92469999999999997</v>
@@ -720,10 +731,10 @@
         <v>0.79169999999999996</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -731,7 +742,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>0.3</v>
@@ -740,10 +751,10 @@
         <v>0.92659999999999998</v>
       </c>
       <c r="E10" s="1">
-        <v>0.87639999999999996</v>
+        <v>0.88319999999999999</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H10" s="1">
         <v>0.92659999999999998</v>
@@ -752,10 +763,10 @@
         <v>0.61460000000000004</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="K10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -763,7 +774,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>0.3</v>
@@ -772,10 +783,10 @@
         <v>0.92659999999999998</v>
       </c>
       <c r="E11" s="1">
-        <v>0.87639999999999996</v>
+        <v>0.88319999999999999</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H11" s="1">
         <v>0.9284</v>
@@ -784,17 +795,46 @@
         <v>0.224</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="K11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.88319999999999999</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>1.63</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.92469999999999997</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:12">
       <c r="D13" s="1"/>
@@ -804,7 +844,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -819,23 +859,26 @@
         <v>0.61829999999999996</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <v>0.3</v>
@@ -845,20 +888,23 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
@@ -870,7 +916,7 @@
         <v>0.97989999999999999</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G28">
         <v>10</v>
@@ -885,7 +931,7 @@
         <v>13</v>
       </c>
       <c r="K28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/results/hdm05.xlsx
+++ b/results/hdm05.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="32">
   <si>
     <t>classifier</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.005</t>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1,  --bayesianModelNum:5</t>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1  --bayesianModelNum:5</t>
   </si>
 </sst>
 </file>
@@ -442,7 +448,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -864,13 +870,17 @@
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="H14" s="1">
+        <v>0.94350000000000001</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.44159999999999999</v>
+      </c>
       <c r="J14" t="s">
         <v>27</v>
       </c>
       <c r="K14" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -886,20 +896,26 @@
       <c r="D15" s="1">
         <v>0.95099999999999996</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <v>0.68489999999999995</v>
+      </c>
       <c r="F15" t="s">
         <v>25</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="H15" s="1">
+        <v>0.94350000000000001</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.442</v>
+      </c>
       <c r="J15" t="s">
         <v>27</v>
       </c>
       <c r="K15" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:11">

--- a/results/hdm05.xlsx
+++ b/results/hdm05.xlsx
@@ -116,10 +116,10 @@
     <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.005</t>
   </si>
   <si>
-    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1,  --bayesianModelNum:5</t>
-  </si>
-  <si>
-    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1  --bayesianModelNum:5</t>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1,  --bayesianModelNum:5 lr 0.01</t>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1  --bayesianModelNum:5 lr 0.01</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -868,14 +868,12 @@
         <v>25</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H14" s="1">
-        <v>0.94350000000000001</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.44159999999999999</v>
-      </c>
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="I14" s="1"/>
       <c r="J14" t="s">
         <v>27</v>
       </c>
@@ -903,14 +901,12 @@
         <v>25</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H15" s="1">
-        <v>0.94350000000000001</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.442</v>
-      </c>
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="I15" s="1"/>
       <c r="J15" t="s">
         <v>27</v>
       </c>

--- a/results/hdm05.xlsx
+++ b/results/hdm05.xlsx
@@ -448,7 +448,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -873,7 +873,9 @@
       <c r="H14" s="1">
         <v>0.95099999999999996</v>
       </c>
-      <c r="I14" s="1"/>
+      <c r="I14" s="1">
+        <v>0.28539999999999999</v>
+      </c>
       <c r="J14" t="s">
         <v>27</v>
       </c>

--- a/results/hdm05.xlsx
+++ b/results/hdm05.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="31">
   <si>
     <t>classifier</t>
   </si>
@@ -75,10 +75,6 @@
   </si>
   <si>
     <t>SGN</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>BayesianEMBATrainer(clfAcc)</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
@@ -448,7 +444,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -480,7 +476,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -515,7 +511,7 @@
         <v>0.87639999999999996</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2">
         <v>1.9</v>
@@ -527,7 +523,7 @@
         <v>0.6946</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -550,7 +546,7 @@
         <v>0.87639999999999996</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3">
         <v>0.04</v>
@@ -562,10 +558,10 @@
         <v>0.7913</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -585,7 +581,7 @@
         <v>0.87639999999999996</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="1">
         <v>0.92659999999999998</v>
@@ -594,10 +590,10 @@
         <v>0.61780000000000002</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -617,7 +613,10 @@
         <v>0.87639999999999996</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="G5">
+        <v>1.2</v>
       </c>
       <c r="H5" s="1">
         <v>0.9284</v>
@@ -626,7 +625,7 @@
         <v>0.224</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5" t="s">
         <v>15</v>
@@ -649,7 +648,7 @@
         <v>0.87639999999999996</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6">
         <v>1.63</v>
@@ -658,13 +657,13 @@
         <v>0.92469999999999997</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -690,7 +689,7 @@
         <v>0.88319999999999999</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8">
         <v>1.9</v>
@@ -702,7 +701,7 @@
         <v>0.7026</v>
       </c>
       <c r="J8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8" t="s">
         <v>14</v>
@@ -725,7 +724,7 @@
         <v>0.88319999999999999</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9">
         <v>0.04</v>
@@ -737,10 +736,10 @@
         <v>0.79169999999999996</v>
       </c>
       <c r="J9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -760,7 +759,7 @@
         <v>0.88319999999999999</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10" s="1">
         <v>0.92659999999999998</v>
@@ -769,10 +768,10 @@
         <v>0.61460000000000004</v>
       </c>
       <c r="J10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -792,7 +791,10 @@
         <v>0.88319999999999999</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="G11">
+        <v>1.2</v>
       </c>
       <c r="H11" s="1">
         <v>0.9284</v>
@@ -801,7 +803,7 @@
         <v>0.224</v>
       </c>
       <c r="J11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K11" t="s">
         <v>15</v>
@@ -824,7 +826,7 @@
         <v>0.88319999999999999</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12">
         <v>1.63</v>
@@ -833,13 +835,13 @@
         <v>0.92469999999999997</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -850,7 +852,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -865,7 +867,7 @@
         <v>0.61829999999999996</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G14">
         <v>1.2</v>
@@ -877,15 +879,15 @@
         <v>0.28539999999999999</v>
       </c>
       <c r="J14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -900,7 +902,7 @@
         <v>0.68489999999999995</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G15">
         <v>1.2</v>
@@ -910,10 +912,10 @@
       </c>
       <c r="I15" s="1"/>
       <c r="J15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -930,7 +932,7 @@
         <v>0.97989999999999999</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G28">
         <v>10</v>
@@ -945,7 +947,7 @@
         <v>13</v>
       </c>
       <c r="K28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/results/hdm05.xlsx
+++ b/results/hdm05.xlsx
@@ -103,9 +103,6 @@
     <t>no need to do this experiment anymore</t>
   </si>
   <si>
-    <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.9, rw:0.4, blw:0.7, cp:0.01</t>
-  </si>
-  <si>
     <t>CTRGCN</t>
   </si>
   <si>
@@ -116,6 +113,9 @@
   </si>
   <si>
     <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1  --bayesianModelNum:5 lr 0.01</t>
+  </si>
+  <si>
+    <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.9, rw:0.4, blw:0.7, cp:0.01 ep 1000</t>
   </si>
 </sst>
 </file>
@@ -444,12 +444,13 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="20.140625" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="22.85546875" customWidth="1"/>
@@ -523,7 +524,7 @@
         <v>0.6946</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -558,7 +559,7 @@
         <v>0.7913</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K3" t="s">
         <v>19</v>
@@ -590,7 +591,7 @@
         <v>0.61780000000000002</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K4" t="s">
         <v>21</v>
@@ -625,7 +626,7 @@
         <v>0.224</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" t="s">
         <v>15</v>
@@ -660,7 +661,7 @@
         <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K6" t="s">
         <v>22</v>
@@ -680,7 +681,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
         <v>0.92659999999999998</v>
@@ -701,7 +702,7 @@
         <v>0.7026</v>
       </c>
       <c r="J8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K8" t="s">
         <v>14</v>
@@ -715,7 +716,7 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
         <v>0.92659999999999998</v>
@@ -736,7 +737,7 @@
         <v>0.79169999999999996</v>
       </c>
       <c r="J9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K9" t="s">
         <v>19</v>
@@ -750,7 +751,7 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
         <v>0.92659999999999998</v>
@@ -768,7 +769,7 @@
         <v>0.61460000000000004</v>
       </c>
       <c r="J10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K10" t="s">
         <v>21</v>
@@ -782,7 +783,7 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1">
         <v>0.92659999999999998</v>
@@ -803,7 +804,7 @@
         <v>0.224</v>
       </c>
       <c r="J11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K11" t="s">
         <v>15</v>
@@ -838,7 +839,7 @@
         <v>25</v>
       </c>
       <c r="J12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K12" t="s">
         <v>22</v>
@@ -852,7 +853,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -879,15 +880,15 @@
         <v>0.28539999999999999</v>
       </c>
       <c r="J14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -912,10 +913,10 @@
       </c>
       <c r="I15" s="1"/>
       <c r="J15" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:11">

--- a/results/hdm05.xlsx
+++ b/results/hdm05.xlsx
@@ -444,7 +444,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -911,7 +911,9 @@
       <c r="H15" s="1">
         <v>0.95099999999999996</v>
       </c>
-      <c r="I15" s="1"/>
+      <c r="I15" s="1">
+        <v>0.2959</v>
+      </c>
       <c r="J15" t="s">
         <v>30</v>
       </c>

--- a/results/hdm05.xlsx
+++ b/results/hdm05.xlsx
@@ -441,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -953,6 +953,12 @@
         <v>20</v>
       </c>
     </row>
+    <row r="33" spans="4:9">
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/hdm05.xlsx
+++ b/results/hdm05.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295BEA65-04D2-4448-BEE5-FF5999332C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="35">
   <si>
     <t>classifier</t>
   </si>
@@ -116,23 +117,39 @@
   </si>
   <si>
     <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.9, rw:0.4, blw:0.7, cp:0.01 ep 1000</t>
+  </si>
+  <si>
+    <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1, , --bayesianModelNum:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.9, rw:0.4, blw:0.7, cp:0.01 ep 1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CIASA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -440,21 +457,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -626,10 +644,10 @@
         <v>0.224</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -915,7 +933,7 @@
         <v>0.2959</v>
       </c>
       <c r="J15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K15" t="s">
         <v>29</v>
@@ -950,6 +968,38 @@
         <v>13</v>
       </c>
       <c r="K28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.94159999999999999</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.97989999999999999</v>
+      </c>
+      <c r="F29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.94530000000000003</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="J29" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" t="s">
         <v>20</v>
       </c>
     </row>

--- a/results/hdm05.xlsx
+++ b/results/hdm05.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295BEA65-04D2-4448-BEE5-FF5999332C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05F04CB-2DC9-4103-9944-168843ED8DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="36">
   <si>
     <t>classifier</t>
   </si>
@@ -132,6 +132,10 @@
   </si>
   <si>
     <t>CIASA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -469,7 +473,7 @@
     <col min="2" max="2" width="9.109375" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="5" max="5" width="20.109375" customWidth="1"/>
-    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="22.88671875" customWidth="1"/>
     <col min="10" max="10" width="21.33203125" customWidth="1"/>
@@ -542,10 +546,10 @@
         <v>0.6946</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:12">

--- a/results/hdm05.xlsx
+++ b/results/hdm05.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05F04CB-2DC9-4103-9944-168843ED8DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF82749-30E0-46B2-83B6-2D89860154DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -986,7 +986,7 @@
         <v>0.94159999999999999</v>
       </c>
       <c r="E29" s="1">
-        <v>0.97989999999999999</v>
+        <v>0.996</v>
       </c>
       <c r="F29" t="s">
         <v>24</v>

--- a/results/hdm05.xlsx
+++ b/results/hdm05.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF82749-30E0-46B2-83B6-2D89860154DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D7B82F-E510-403A-83AF-EF6DA7896895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="41">
   <si>
     <t>classifier</t>
   </si>
@@ -136,6 +136,26 @@
   </si>
   <si>
     <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack 100 epoches</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSG3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.01 ep 1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:1e-3, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1,  --bayesianModelNum:5 lr 1e-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:1e-3, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1  --bayesianModelNum:5 lr 1e-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -179,9 +199,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,18 +488,18 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="9.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="22.88671875" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.875" customWidth="1"/>
+    <col min="10" max="10" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -581,7 +604,7 @@
         <v>0.7913</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
         <v>19</v>
@@ -943,67 +966,148 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" t="s">
+    <row r="21" spans="1:11" s="2" customFormat="1">
+      <c r="A21" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.93779999999999997</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22">
+        <v>3.4</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.18509999999999999</v>
+      </c>
+      <c r="J22" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.93779999999999997</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.95830000000000004</v>
+      </c>
+      <c r="F23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23">
+        <v>3.4</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.18290000000000001</v>
+      </c>
+      <c r="J23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
         <v>17</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B24" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="1">
+      <c r="C24">
+        <v>0.1</v>
+      </c>
+      <c r="D24" s="1">
         <v>0.94159999999999999</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E24" s="1">
         <v>0.97989999999999999</v>
       </c>
-      <c r="F28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28">
+      <c r="F24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24">
         <v>10</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H24" s="1">
         <v>0.94530000000000003</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I24" s="1">
         <v>0.1719</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J24" t="s">
         <v>13</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="A29" t="s">
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
         <v>17</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B25" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="1">
+      <c r="C25">
+        <v>0.1</v>
+      </c>
+      <c r="D25" s="1">
         <v>0.94159999999999999</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E25" s="1">
         <v>0.996</v>
       </c>
-      <c r="F29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29">
+      <c r="F25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25">
         <v>10</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H25" s="1">
         <v>0.94530000000000003</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I25" s="1">
         <v>0.27600000000000002</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J25" t="s">
         <v>13</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K25" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1014,6 +1118,9 @@
       <c r="I33" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A21:XFD21"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/results/hdm05.xlsx
+++ b/results/hdm05.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D7B82F-E510-403A-83AF-EF6DA7896895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC8B89A-2B75-441F-B40A-0253766BE0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22032" yWindow="2100" windowWidth="21600" windowHeight="11208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -966,6 +966,76 @@
         <v>29</v>
       </c>
     </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.94159999999999999</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.97989999999999999</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.94530000000000003</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.1719</v>
+      </c>
+      <c r="J17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>0.1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.94159999999999999</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.996</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.94530000000000003</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="J18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="21" spans="1:11" s="2" customFormat="1">
       <c r="A21" s="2" t="s">
         <v>36</v>
@@ -1039,76 +1109,6 @@
       </c>
       <c r="K23" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24">
-        <v>0.1</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.94159999999999999</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0.97989999999999999</v>
-      </c>
-      <c r="F24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24">
-        <v>10</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0.94530000000000003</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0.1719</v>
-      </c>
-      <c r="J24" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25">
-        <v>0.1</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0.94159999999999999</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0.996</v>
-      </c>
-      <c r="F25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25">
-        <v>10</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0.94530000000000003</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="J25" t="s">
-        <v>13</v>
-      </c>
-      <c r="K25" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="33" spans="4:9">

--- a/results/hdm05.xlsx
+++ b/results/hdm05.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC8B89A-2B75-441F-B40A-0253766BE0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFF1588-3889-4080-BB3F-E1DD9D188908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22032" yWindow="2100" windowWidth="21600" windowHeight="11208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="48">
   <si>
     <t>classifier</t>
   </si>
@@ -156,6 +156,34 @@
   </si>
   <si>
     <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:1e-3, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1  --bayesianModelNum:5 lr 1e-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMART</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT(SMART-50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5%(SMART-100)/69.4%(SMART-1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.15%(CIASA-100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT(SMART-20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.39%(SMART-100)/84%(SMART-1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.51%(SMART-100)/18.51%(SMART-1000)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -199,11 +227,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,7 +519,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -498,7 +529,7 @@
     <col min="5" max="5" width="20.125" customWidth="1"/>
     <col min="7" max="7" width="10.75" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="22.875" customWidth="1"/>
+    <col min="9" max="9" width="14.875" customWidth="1"/>
     <col min="10" max="10" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1066,8 +1097,8 @@
       <c r="H22" s="1">
         <v>0.93600000000000005</v>
       </c>
-      <c r="I22" s="1">
-        <v>0.18509999999999999</v>
+      <c r="I22" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J22" t="s">
         <v>38</v>
@@ -1109,6 +1140,102 @@
       </c>
       <c r="K23" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.93779999999999997</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="F24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24">
+        <v>22</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.93030000000000002</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.93779999999999997</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.95830000000000004</v>
+      </c>
+      <c r="F25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25">
+        <v>22</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.93030000000000002</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.93779999999999997</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="F26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26">
+        <v>6.2</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="4:9">

--- a/results/hdm05.xlsx
+++ b/results/hdm05.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFF1588-3889-4080-BB3F-E1DD9D188908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF58EA9-E2AB-46FB-9071-04AFEAAACC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="46">
   <si>
     <t>classifier</t>
   </si>
@@ -171,19 +171,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.15%(CIASA-100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT(SMART-20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.39%(SMART-100)/84%(SMART-1000)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>18.51%(SMART-100)/18.51%(SMART-1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.15%(CIASA-100)/84.77%(CIASA-1000)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -230,11 +222,11 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,21 +508,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="5" max="5" width="20.125" customWidth="1"/>
-    <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="14.875" customWidth="1"/>
-    <col min="10" max="10" width="21.375" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1067,8 +1060,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="2" customFormat="1">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:11" s="3" customFormat="1">
+      <c r="A21" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1098,7 +1091,7 @@
         <v>0.93600000000000005</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J22" t="s">
         <v>38</v>
@@ -1167,7 +1160,7 @@
       <c r="H24" s="1">
         <v>0.93030000000000002</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J24" t="s">
@@ -1199,50 +1192,18 @@
       <c r="H25" s="1">
         <v>0.93030000000000002</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>44</v>
+      <c r="I25" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0.93779999999999997</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="F26" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26">
-        <v>6.2</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="4:9">
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+    <row r="32" spans="1:11">
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/results/hdm05.xlsx
+++ b/results/hdm05.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF58EA9-E2AB-46FB-9071-04AFEAAACC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C2FD84-EB5C-4D92-9BB0-FCB0EE6028A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="42">
   <si>
     <t>classifier</t>
   </si>
@@ -139,10 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>attack 100 epoches</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MSG3D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,18 +160,6 @@
   </si>
   <si>
     <t>AT(SMART-50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.5%(SMART-100)/69.4%(SMART-1000)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18.51%(SMART-100)/18.51%(SMART-1000)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.15%(CIASA-100)/84.77%(CIASA-1000)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -223,11 +207,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1060,14 +1042,70 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="3" customFormat="1">
-      <c r="A21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>0.06</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.94159999999999999</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.97989999999999999</v>
+      </c>
+      <c r="F19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19">
+        <v>1.4</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.93320000000000003</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>0.06</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.94159999999999999</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.996</v>
+      </c>
+      <c r="F20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20">
+        <v>1.4</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.93320000000000003</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="3" customFormat="1"/>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
@@ -1090,19 +1128,19 @@
       <c r="H22" s="1">
         <v>0.93600000000000005</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>44</v>
+      <c r="I22" s="1">
+        <v>0.18509999999999999</v>
       </c>
       <c r="J22" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22" t="s">
         <v>38</v>
-      </c>
-      <c r="K22" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
@@ -1129,18 +1167,18 @@
         <v>0.18290000000000001</v>
       </c>
       <c r="J23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1152,7 +1190,7 @@
         <v>0.96799999999999997</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G24">
         <v>22</v>
@@ -1160,8 +1198,8 @@
       <c r="H24" s="1">
         <v>0.93030000000000002</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>43</v>
+      <c r="I24" s="2">
+        <v>0.69399999999999995</v>
       </c>
       <c r="J24" t="s">
         <v>31</v>
@@ -1169,7 +1207,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
@@ -1184,7 +1222,7 @@
         <v>0.95830000000000004</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G25">
         <v>22</v>
@@ -1192,8 +1230,8 @@
       <c r="H25" s="1">
         <v>0.93030000000000002</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>45</v>
+      <c r="I25" s="2">
+        <v>0.84770000000000001</v>
       </c>
       <c r="J25" t="s">
         <v>31</v>
@@ -1206,9 +1244,6 @@
       <c r="I32" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A21:XFD21"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/results/hdm05.xlsx
+++ b/results/hdm05.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D7B82F-E510-403A-83AF-EF6DA7896895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22935" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -162,18 +161,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -484,22 +483,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="5" max="5" width="20.125" customWidth="1"/>
-    <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="22.875" customWidth="1"/>
-    <col min="10" max="10" width="21.375" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -554,7 +553,7 @@
         <v>0.92659999999999998</v>
       </c>
       <c r="E2" s="1">
-        <v>0.87639999999999996</v>
+        <v>0.9748</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -589,7 +588,7 @@
         <v>0.92659999999999998</v>
       </c>
       <c r="E3" s="1">
-        <v>0.87639999999999996</v>
+        <v>0.9748</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -624,7 +623,7 @@
         <v>0.92659999999999998</v>
       </c>
       <c r="E4" s="1">
-        <v>0.87639999999999996</v>
+        <v>0.9748</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
@@ -656,7 +655,7 @@
         <v>0.92659999999999998</v>
       </c>
       <c r="E5" s="1">
-        <v>0.87639999999999996</v>
+        <v>0.9748</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
@@ -668,7 +667,7 @@
         <v>0.9284</v>
       </c>
       <c r="I5" s="1">
-        <v>0.224</v>
+        <v>0.2656</v>
       </c>
       <c r="J5" t="s">
         <v>31</v>
@@ -691,7 +690,7 @@
         <v>0.92659999999999998</v>
       </c>
       <c r="E6" s="1">
-        <v>0.87639999999999996</v>
+        <v>0.9748</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -732,7 +731,7 @@
         <v>0.92659999999999998</v>
       </c>
       <c r="E8" s="1">
-        <v>0.88319999999999999</v>
+        <v>0.9748</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
@@ -767,7 +766,7 @@
         <v>0.92659999999999998</v>
       </c>
       <c r="E9" s="1">
-        <v>0.88319999999999999</v>
+        <v>0.9748</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
@@ -802,7 +801,7 @@
         <v>0.92659999999999998</v>
       </c>
       <c r="E10" s="1">
-        <v>0.88319999999999999</v>
+        <v>0.9748</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
@@ -834,7 +833,7 @@
         <v>0.92659999999999998</v>
       </c>
       <c r="E11" s="1">
-        <v>0.88319999999999999</v>
+        <v>0.9748</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
@@ -846,7 +845,7 @@
         <v>0.9284</v>
       </c>
       <c r="I11" s="1">
-        <v>0.224</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="J11" t="s">
         <v>27</v>
@@ -869,7 +868,7 @@
         <v>0.92659999999999998</v>
       </c>
       <c r="E12" s="1">
-        <v>0.88319999999999999</v>
+        <v>0.9748</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>

--- a/results/hdm05.xlsx
+++ b/results/hdm05.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C2FD84-EB5C-4D92-9BB0-FCB0EE6028A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D91E4E-C21E-45D5-BE59-B29D870776D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="41">
   <si>
     <t>classifier</t>
   </si>
@@ -107,16 +107,10 @@
     <t>CTRGCN</t>
   </si>
   <si>
-    <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.005</t>
-  </si>
-  <si>
     <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1,  --bayesianModelNum:5 lr 0.01</t>
   </si>
   <si>
     <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1  --bayesianModelNum:5 lr 0.01</t>
-  </si>
-  <si>
-    <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.9, rw:0.4, blw:0.7, cp:0.01 ep 1000</t>
   </si>
   <si>
     <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.005</t>
@@ -160,6 +154,10 @@
   </si>
   <si>
     <t>AT(SMART-50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no need to do this experiment anymore</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -493,7 +491,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -575,10 +573,10 @@
         <v>0.6946</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -610,7 +608,7 @@
         <v>0.7913</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
         <v>19</v>
@@ -642,7 +640,7 @@
         <v>0.61780000000000002</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K4" t="s">
         <v>21</v>
@@ -677,10 +675,10 @@
         <v>0.224</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -709,10 +707,10 @@
         <v>0.92469999999999997</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K6" t="s">
         <v>22</v>
@@ -753,7 +751,7 @@
         <v>0.7026</v>
       </c>
       <c r="J8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K8" t="s">
         <v>14</v>
@@ -788,7 +786,7 @@
         <v>0.79169999999999996</v>
       </c>
       <c r="J9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K9" t="s">
         <v>19</v>
@@ -820,7 +818,7 @@
         <v>0.61460000000000004</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K10" t="s">
         <v>21</v>
@@ -855,7 +853,7 @@
         <v>0.224</v>
       </c>
       <c r="J11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K11" t="s">
         <v>15</v>
@@ -890,7 +888,7 @@
         <v>25</v>
       </c>
       <c r="J12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K12" t="s">
         <v>22</v>
@@ -931,10 +929,10 @@
         <v>0.28539999999999999</v>
       </c>
       <c r="J14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -966,10 +964,10 @@
         <v>0.2959</v>
       </c>
       <c r="J15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1012,7 +1010,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>0.1</v>
@@ -1059,7 +1057,7 @@
         <v>0.97989999999999999</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>1.4</v>
@@ -1077,7 +1075,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C20">
         <v>0.06</v>
@@ -1089,7 +1087,7 @@
         <v>0.996</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G20">
         <v>1.4</v>
@@ -1105,7 +1103,7 @@
     <row r="21" spans="1:11" s="3" customFormat="1"/>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
@@ -1132,15 +1130,15 @@
         <v>0.18509999999999999</v>
       </c>
       <c r="J22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
@@ -1167,18 +1165,18 @@
         <v>0.18290000000000001</v>
       </c>
       <c r="J23" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23" t="s">
         <v>37</v>
-      </c>
-      <c r="K23" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1190,7 +1188,7 @@
         <v>0.96799999999999997</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G24">
         <v>22</v>
@@ -1202,15 +1200,15 @@
         <v>0.69399999999999995</v>
       </c>
       <c r="J24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1222,7 +1220,7 @@
         <v>0.95830000000000004</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G25">
         <v>22</v>
@@ -1234,7 +1232,7 @@
         <v>0.84770000000000001</v>
       </c>
       <c r="J25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:11">

--- a/results/hdm05.xlsx
+++ b/results/hdm05.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5695BF81-4AAE-4DE1-A2A8-AB2A73B71E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22935" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="46">
   <si>
     <t>classifier</t>
   </si>
@@ -138,10 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>attack 100 epoches</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MSG3D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,24 +152,48 @@
   </si>
   <si>
     <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:1e-3, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1  --bayesianModelNum:5 lr 1e-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STGCN</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT(SMART-50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1,  --bayesianModelNum:5 lr 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMART</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -198,11 +219,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,22 +505,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.875" customWidth="1"/>
+    <col min="10" max="10" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -897,229 +919,698 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>0.95099999999999996</v>
+        <v>0.92659999999999998</v>
       </c>
       <c r="E14" s="1">
-        <v>0.61829999999999996</v>
+        <v>0.9748</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G14">
-        <v>1.2</v>
+        <v>10.1</v>
       </c>
       <c r="H14" s="1">
-        <v>0.95099999999999996</v>
+        <v>0.92090000000000005</v>
       </c>
       <c r="I14" s="1">
-        <v>0.28539999999999999</v>
+        <v>0.9194</v>
       </c>
       <c r="J14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.9748</v>
+      </c>
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15">
+        <v>10.1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.92090000000000005</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.91879999999999995</v>
+      </c>
+      <c r="J15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.9748</v>
+      </c>
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.92959999999999998</v>
+      </c>
+      <c r="J16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.9748</v>
+      </c>
+      <c r="F17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>0.3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.61829999999999996</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19">
+        <v>1.2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.28539999999999999</v>
+      </c>
+      <c r="J19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
         <v>16</v>
       </c>
-      <c r="C15">
+      <c r="C20">
         <v>0.3</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D20" s="1">
         <v>0.95099999999999996</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E20" s="1">
         <v>0.68489999999999995</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F20" t="s">
         <v>24</v>
       </c>
-      <c r="G15">
+      <c r="G20">
         <v>1.2</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H20" s="1">
         <v>0.95099999999999996</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I20" s="1">
         <v>0.2959</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J20" t="s">
         <v>33</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="2" customFormat="1">
-      <c r="A21" s="2" t="s">
-        <v>36</v>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>0.3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.61829999999999996</v>
+      </c>
+      <c r="F21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21">
+        <v>1.2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="J21" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="D22" s="1">
-        <v>0.93779999999999997</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="E22" s="1">
-        <v>0.96799999999999997</v>
+        <v>0.68489999999999995</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="G22">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H22" s="1">
-        <v>0.93600000000000005</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="I22" s="1">
-        <v>0.18509999999999999</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="J22" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K22" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="D23" s="1">
-        <v>0.93779999999999997</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="E23" s="1">
-        <v>0.95830000000000004</v>
+        <v>0.61829999999999996</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G23">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H23" s="1">
-        <v>0.93600000000000005</v>
+        <v>0.93969999999999998</v>
       </c>
       <c r="I23" s="1">
-        <v>0.18290000000000001</v>
+        <v>0.74470000000000003</v>
       </c>
       <c r="J23" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K23" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>0.3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.68489999999999995</v>
+      </c>
+      <c r="F24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24">
+        <v>1.2</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.93969999999999998</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.74109999999999998</v>
+      </c>
+      <c r="J24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="2" customFormat="1"/>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
         <v>12</v>
       </c>
-      <c r="C24">
-        <v>0.1</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.94159999999999999</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0.97989999999999999</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.93779999999999997</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="F27" t="s">
         <v>24</v>
       </c>
-      <c r="G24">
-        <v>10</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0.94530000000000003</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0.1719</v>
-      </c>
-      <c r="J24" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="G27">
+        <v>3.4</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.18509999999999999</v>
+      </c>
+      <c r="J27" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.93779999999999997</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.95830000000000004</v>
+      </c>
+      <c r="F28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28">
+        <v>3.4</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.18290000000000001</v>
+      </c>
+      <c r="J28" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.93779999999999997</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="F29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29">
+        <v>22</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.93030000000000002</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="J29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
         <v>34</v>
       </c>
-      <c r="C25">
-        <v>0.1</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0.94159999999999999</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0.996</v>
-      </c>
-      <c r="F25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25">
-        <v>10</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0.94530000000000003</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="J25" t="s">
-        <v>13</v>
-      </c>
-      <c r="K25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="4:9">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.93779999999999997</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.95830000000000004</v>
+      </c>
+      <c r="F30" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30">
+        <v>22</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.93030000000000002</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0.84770000000000001</v>
+      </c>
+      <c r="J30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.93779999999999997</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="F31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.93030000000000002</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0.94920000000000004</v>
+      </c>
+      <c r="J31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.93779999999999997</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.95830000000000004</v>
+      </c>
+      <c r="F32" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.93030000000000002</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0.94579999999999997</v>
+      </c>
+      <c r="J32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
+    <row r="34" spans="1:11">
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>0.1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.94159999999999999</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.97989999999999999</v>
+      </c>
+      <c r="F35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35">
+        <v>10</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.94530000000000003</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.1719</v>
+      </c>
+      <c r="J35" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.94159999999999999</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.996</v>
+      </c>
+      <c r="F36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36">
+        <v>10</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.94530000000000003</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="J36" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37">
+        <v>0.06</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.94159999999999999</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.97989999999999999</v>
+      </c>
+      <c r="F37" t="s">
+        <v>41</v>
+      </c>
+      <c r="G37">
+        <v>1.4</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.93320000000000003</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.95750000000000002</v>
+      </c>
+      <c r="J37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38">
+        <v>0.06</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.94159999999999999</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.996</v>
+      </c>
+      <c r="F38" t="s">
+        <v>41</v>
+      </c>
+      <c r="G38">
+        <v>1.4</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.93320000000000003</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.97319999999999995</v>
+      </c>
+      <c r="J38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A21:XFD21"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
